--- a/test_vlookup.xlsx
+++ b/test_vlookup.xlsx
@@ -554,26 +554,66 @@
       <c r="B2" t="n">
         <v>27.4</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4928</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4345</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4038</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3836</v>
+      </c>
+      <c r="J2" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4928</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5655</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5962</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6764</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5852000000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5425</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,26 +624,66 @@
       <c r="B3" t="n">
         <v>19.4</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3387</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="J3" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6613</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5762</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6399</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5379</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,26 +694,66 @@
       <c r="B4" t="n">
         <v>21.2</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4064</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7907</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5893</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5936</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.6388</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5661</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6233</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,26 +764,66 @@
       <c r="B5" t="n">
         <v>27.7</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4992</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3881</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5338000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5008</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4662</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6582</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5864</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5243</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,26 +834,66 @@
       <c r="B6" t="n">
         <v>20.2</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3669</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4176</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4664</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6331</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6719000000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5952</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6404</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -704,26 +904,66 @@
       <c r="B7" t="n">
         <v>26.6</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4647</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4892</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4357</v>
+      </c>
+      <c r="J7" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5353</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5108</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5728</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5837</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -734,26 +974,66 @@
       <c r="B8" t="n">
         <v>28.6</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4571</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4792</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5223</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4793</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" t="n">
+        <v>258</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5286</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5208</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4777</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5207000000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.6717</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5851</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -764,26 +1044,66 @@
       <c r="B9" t="n">
         <v>23.8</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4317</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6981000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5702</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5683</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6425999999999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -794,26 +1114,66 @@
       <c r="B10" t="n">
         <v>21.5</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2927</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3655</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4303</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4619</v>
+      </c>
+      <c r="J10" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6345</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5381</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6829</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6238</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -824,26 +1184,66 @@
       <c r="B11" t="n">
         <v>23.6</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2955</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3722</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4387</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>234.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5718</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6278</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5613</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.6768</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5869</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -854,26 +1254,66 @@
       <c r="B12" t="n">
         <v>18.9</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>127</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3135</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4677</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>207.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5313</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6865</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5323</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6753</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -884,26 +1324,66 @@
       <c r="B13" t="n">
         <v>21.2</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4324</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4868</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3988</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4426</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5132</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.6257</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.6442</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5262</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -914,26 +1394,66 @@
       <c r="B14" t="n">
         <v>21.4</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2973</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3839</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5271</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4369</v>
+      </c>
+      <c r="J14" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>230</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6216</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4729</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5631</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.6452</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6307</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.6042</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -944,26 +1464,66 @@
       <c r="B15" t="n">
         <v>22.7</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4089</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3802</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="J15" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6383</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5301</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.6306</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5861</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5649</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -974,26 +1534,66 @@
       <c r="B16" t="n">
         <v>22.2</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3966</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4487</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.7083</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5731000000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5513</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.6696</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.6307</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1004,26 +1604,66 @@
       <c r="B17" t="n">
         <v>23.3</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4524</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4378</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3894</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4307</v>
+      </c>
+      <c r="J17" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5622</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6106</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5693</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.6677</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1034,26 +1674,66 @@
       <c r="B18" t="n">
         <v>19.4</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4722</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4118</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.6395999999999999</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.6324</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.5674</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1064,26 +1744,66 @@
       <c r="B19" t="n">
         <v>24.6</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>124</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4506</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4703</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4312</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>226</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5494</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5296999999999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5688</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.6589</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.6155</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5679</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1094,26 +1814,66 @@
       <c r="B20" t="n">
         <v>30.1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2459</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4071</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3511</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="J20" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6393</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5929</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6489</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.5241</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.6958</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.6399</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.5759</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1124,26 +1884,66 @@
       <c r="B21" t="n">
         <v>21</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4439</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4032</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5149</v>
+      </c>
+      <c r="J21" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5561</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4851</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6569</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5953000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1154,26 +1954,66 @@
       <c r="B22" t="n">
         <v>17.8</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4848</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3851</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4363</v>
+      </c>
+      <c r="J22" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6149</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.5637</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.6433</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.5752</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1184,26 +2024,66 @@
       <c r="B23" t="n">
         <v>17.9</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5161</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4477</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4872</v>
+      </c>
+      <c r="J23" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5569</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5523</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6298</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1214,26 +2094,66 @@
       <c r="B24" t="n">
         <v>22.2</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3696</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4697</v>
+      </c>
+      <c r="J24" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5366</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.5934</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6304</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5303</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.5872000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1244,26 +2164,66 @@
       <c r="B25" t="n">
         <v>15.8</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3685</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4833</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="J25" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6315</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5167</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5923</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5542</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.629</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1274,26 +2234,66 @@
       <c r="B26" t="n">
         <v>23.7</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4299</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4401</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3858</v>
+      </c>
+      <c r="J26" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6087</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5701000000000001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5599</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.6254</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1304,26 +2304,66 @@
       <c r="B27" t="n">
         <v>20.4</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3897</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4666</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="J27" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>232.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.5334</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.5705</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.6472</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.5657</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1334,26 +2374,66 @@
       <c r="B28" t="n">
         <v>19.5</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4089</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4366</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4296</v>
+      </c>
+      <c r="J28" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.5634</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.5704</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.6248</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.5742</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5327</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1364,26 +2444,66 @@
       <c r="B29" t="n">
         <v>13.9</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3043</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="J29" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5652</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.4776</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.5973000000000001</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.6185</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.5844</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1394,26 +2514,66 @@
       <c r="B30" t="n">
         <v>15.6</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3856</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.3696</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5705</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6304</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6525</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5732</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.5584</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1424,26 +2584,66 @@
       <c r="B31" t="n">
         <v>22.8</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3228</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4287</v>
+      </c>
+      <c r="J31" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5682</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.6772</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.5806</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.5565</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.6149</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1454,26 +2654,66 @@
       <c r="B32" t="n">
         <v>13.9</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4069</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4493</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5926</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.6302</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.6035</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5958</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1484,26 +2724,66 @@
       <c r="B33" t="n">
         <v>27.9</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4355</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4263</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5021</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5737</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6826</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.5711000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
